--- a/Portfolio/scripts/output/201910/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201910/父母/父母资产配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\scripts\output\201910\父母\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C2EF1F-4D6C-44D8-986E-BA8FEF3E7246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67082FEE-3295-4338-A2C9-4400B22F0E68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,25 +319,25 @@
     <t>146</t>
   </si>
   <si>
+    <t>华宝标普油气上游股票</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>原油</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
     <t>华安黄金易ETF联接A</t>
   </si>
   <si>
-    <t>商品</t>
-  </si>
-  <si>
     <t>黄金</t>
   </si>
   <si>
     <t>511</t>
-  </si>
-  <si>
-    <t>华宝标普油气上游股票</t>
-  </si>
-  <si>
-    <t>原油</t>
-  </si>
-  <si>
-    <t>512</t>
   </si>
   <si>
     <t>易方达证券公司分级</t>
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -808,16 +808,16 @@
         <v>519671</v>
       </c>
       <c r="C2" s="4">
-        <v>1.4220999999999999</v>
+        <v>1.4229000000000001</v>
       </c>
       <c r="D2" s="5">
-        <v>886.91</v>
+        <v>918.59</v>
       </c>
       <c r="E2" s="5">
-        <v>1328.33</v>
+        <v>1322.77</v>
       </c>
       <c r="F2" s="5">
-        <v>21.23</v>
+        <v>15.67</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
@@ -843,16 +843,16 @@
         <v>501021</v>
       </c>
       <c r="C3" s="4">
-        <v>1.3460000000000001</v>
+        <v>1.3485</v>
       </c>
       <c r="D3" s="5">
-        <v>875.23</v>
+        <v>898.04</v>
       </c>
       <c r="E3" s="5">
-        <v>1293.47</v>
+        <v>1287.3399999999999</v>
       </c>
       <c r="F3" s="5">
-        <v>82.5</v>
+        <v>76.37</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>18</v>
@@ -878,16 +878,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="4">
-        <v>1.6558999999999999</v>
+        <v>1.6553</v>
       </c>
       <c r="D4" s="5">
-        <v>749.65</v>
+        <v>776.41</v>
       </c>
       <c r="E4" s="5">
-        <v>1271.82</v>
+        <v>1262.44</v>
       </c>
       <c r="F4" s="5">
-        <v>-13.41</v>
+        <v>-22.79</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>12</v>
@@ -916,13 +916,13 @@
         <v>0.9345</v>
       </c>
       <c r="D5" s="5">
-        <v>1127.26</v>
+        <v>1171.5</v>
       </c>
       <c r="E5" s="5">
-        <v>1093.53</v>
+        <v>1081.29</v>
       </c>
       <c r="F5" s="5">
-        <v>-1.25</v>
+        <v>-13.49</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
@@ -954,10 +954,10 @@
         <v>426.51</v>
       </c>
       <c r="E6" s="5">
-        <v>789.51</v>
+        <v>783.93</v>
       </c>
       <c r="F6" s="5">
-        <v>27.99</v>
+        <v>22.41</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>12</v>
@@ -983,16 +983,16 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4">
-        <v>2.1086</v>
+        <v>2.1109</v>
       </c>
       <c r="D7" s="5">
-        <v>321.76</v>
+        <v>338.92</v>
       </c>
       <c r="E7" s="5">
-        <v>729.51</v>
+        <v>724.31</v>
       </c>
       <c r="F7" s="5">
-        <v>14.07</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>12</v>
@@ -1018,16 +1018,16 @@
         <v>968</v>
       </c>
       <c r="C8" s="4">
-        <v>0.96040000000000003</v>
+        <v>0.95979999999999999</v>
       </c>
       <c r="D8" s="5">
-        <v>214.03</v>
+        <v>249.28</v>
       </c>
       <c r="E8" s="5">
-        <v>238.17</v>
+        <v>235.82</v>
       </c>
       <c r="F8" s="5">
-        <v>-1.0900000000000001</v>
+        <v>-3.44</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -1059,10 +1059,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5">
-        <v>201.67</v>
+        <v>200.9</v>
       </c>
       <c r="F9" s="5">
-        <v>-9.5500000000000007</v>
+        <v>-10.32</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>12</v>
@@ -1094,10 +1094,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5">
-        <v>165.72</v>
+        <v>164.19</v>
       </c>
       <c r="F10" s="5">
-        <v>23.02</v>
+        <v>21.49</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>12</v>
@@ -1129,10 +1129,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5">
-        <v>82.27</v>
+        <v>81.59</v>
       </c>
       <c r="F11" s="5">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>12</v>
@@ -1164,10 +1164,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5">
-        <v>35.31</v>
+        <v>35.17</v>
       </c>
       <c r="F12" s="5">
-        <v>-1.77</v>
+        <v>-1.91</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>12</v>
@@ -1222,34 +1222,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C14" s="4">
-        <v>1.6631</v>
+        <v>1.3513999999999999</v>
       </c>
       <c r="D14" s="5">
-        <v>779.46</v>
+        <v>915.97</v>
       </c>
       <c r="E14" s="5">
-        <v>1320.65</v>
+        <v>1313.04</v>
       </c>
       <c r="F14" s="5">
-        <v>-19.57</v>
+        <v>75.2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>55</v>
@@ -1257,34 +1257,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C15" s="4">
-        <v>1.3491</v>
+        <v>1.6624000000000001</v>
       </c>
       <c r="D15" s="5">
-        <v>893.16</v>
+        <v>806.22</v>
       </c>
       <c r="E15" s="5">
-        <v>1319.3</v>
+        <v>1310.91</v>
       </c>
       <c r="F15" s="5">
-        <v>81.459999999999994</v>
+        <v>-29.31</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>55</v>
@@ -1298,16 +1298,16 @@
         <v>519671</v>
       </c>
       <c r="C16" s="4">
-        <v>1.419</v>
+        <v>1.42</v>
       </c>
       <c r="D16" s="5">
-        <v>835.44</v>
+        <v>867.12</v>
       </c>
       <c r="E16" s="5">
-        <v>1253.9100000000001</v>
+        <v>1248.6500000000001</v>
       </c>
       <c r="F16" s="5">
-        <v>22.56</v>
+        <v>17.3</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>12</v>
@@ -1333,16 +1333,16 @@
         <v>3318</v>
       </c>
       <c r="C17" s="4">
-        <v>0.93630000000000002</v>
+        <v>0.93620000000000003</v>
       </c>
       <c r="D17" s="5">
-        <v>1087.56</v>
+        <v>1131.8</v>
       </c>
       <c r="E17" s="5">
-        <v>1056.48</v>
+        <v>1044.6500000000001</v>
       </c>
       <c r="F17" s="5">
-        <v>-3.14</v>
+        <v>-14.97</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>12</v>
@@ -1374,10 +1374,10 @@
         <v>434.07</v>
       </c>
       <c r="E18" s="5">
-        <v>803.51</v>
+        <v>797.82</v>
       </c>
       <c r="F18" s="5">
-        <v>28.92</v>
+        <v>23.23</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>12</v>
@@ -1403,16 +1403,16 @@
         <v>530015</v>
       </c>
       <c r="C19" s="4">
-        <v>2.1053999999999999</v>
+        <v>2.1082000000000001</v>
       </c>
       <c r="D19" s="5">
-        <v>287.18</v>
+        <v>304.33999999999997</v>
       </c>
       <c r="E19" s="5">
-        <v>655.09</v>
+        <v>650.41</v>
       </c>
       <c r="F19" s="5">
-        <v>13.48</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>12</v>
@@ -1444,10 +1444,10 @@
         <v>227.52</v>
       </c>
       <c r="E20" s="5">
-        <v>213.53</v>
+        <v>212.71</v>
       </c>
       <c r="F20" s="5">
-        <v>-9.98</v>
+        <v>-10.8</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>12</v>
@@ -1473,16 +1473,16 @@
         <v>968</v>
       </c>
       <c r="C21" s="4">
-        <v>0.95789999999999997</v>
+        <v>0.95760000000000001</v>
       </c>
       <c r="D21" s="5">
-        <v>179.27</v>
+        <v>214.52</v>
       </c>
       <c r="E21" s="5">
-        <v>204.97</v>
+        <v>202.94</v>
       </c>
       <c r="F21" s="5">
-        <v>-0.46</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>12</v>
@@ -1514,10 +1514,10 @@
         <v>142.1</v>
       </c>
       <c r="E22" s="5">
-        <v>188.28</v>
+        <v>186.72</v>
       </c>
       <c r="F22" s="5">
-        <v>5.83</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>12</v>
@@ -1549,10 +1549,10 @@
         <v>212.74</v>
       </c>
       <c r="E23" s="5">
-        <v>165.72</v>
+        <v>164.19</v>
       </c>
       <c r="F23" s="5">
-        <v>23.02</v>
+        <v>21.49</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>12</v>
@@ -1584,10 +1584,10 @@
         <v>24.24</v>
       </c>
       <c r="E24" s="5">
-        <v>35.31</v>
+        <v>35.17</v>
       </c>
       <c r="F24" s="5">
-        <v>-1.77</v>
+        <v>-1.91</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>12</v>
@@ -1654,10 +1654,10 @@
         <v>9331.14</v>
       </c>
       <c r="E26" s="10">
-        <v>10261.450000000001</v>
+        <v>10144.81</v>
       </c>
       <c r="F26" s="10">
-        <v>461.45</v>
+        <v>344.81</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>12</v>
@@ -1689,10 +1689,10 @@
         <v>8318.43</v>
       </c>
       <c r="E27" s="10">
-        <v>9258.41</v>
+        <v>9200.18</v>
       </c>
       <c r="F27" s="10">
-        <v>858.41</v>
+        <v>800.18</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>12</v>
@@ -1724,10 +1724,10 @@
         <v>6096.21</v>
       </c>
       <c r="E28" s="10">
-        <v>5823.7</v>
+        <v>5767.01</v>
       </c>
       <c r="F28" s="10">
-        <v>623.70000000000005</v>
+        <v>567.01</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>12</v>
@@ -1759,10 +1759,10 @@
         <v>6750.28</v>
       </c>
       <c r="E29" s="10">
-        <v>5803.21</v>
+        <v>5761.36</v>
       </c>
       <c r="F29" s="10">
-        <v>1003.21</v>
+        <v>961.36</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>12</v>
@@ -1794,10 +1794,10 @@
         <v>2760.12</v>
       </c>
       <c r="E30" s="10">
-        <v>4523.83</v>
+        <v>4498.99</v>
       </c>
       <c r="F30" s="10">
-        <v>923.83</v>
+        <v>898.99</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>12</v>
@@ -1829,10 +1829,10 @@
         <v>4423.4799999999996</v>
       </c>
       <c r="E31" s="10">
-        <v>3401.65</v>
+        <v>3361.4</v>
       </c>
       <c r="F31" s="10">
-        <v>201.65</v>
+        <v>161.4</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>12</v>
@@ -1864,10 +1864,10 @@
         <v>2046.97</v>
       </c>
       <c r="E32" s="10">
-        <v>3340.65</v>
+        <v>3293.57</v>
       </c>
       <c r="F32" s="10">
-        <v>628.54</v>
+        <v>581.46</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>12</v>
@@ -1899,10 +1899,10 @@
         <v>5949.77</v>
       </c>
       <c r="E33" s="10">
-        <v>3233.69</v>
+        <v>3206.92</v>
       </c>
       <c r="F33" s="10">
-        <v>33.69</v>
+        <v>6.92</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>12</v>
@@ -1934,10 +1934,10 @@
         <v>1743.65</v>
       </c>
       <c r="E34" s="10">
-        <v>2920.61</v>
+        <v>2913.63</v>
       </c>
       <c r="F34" s="10">
-        <v>129.61000000000001</v>
+        <v>122.63</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>74</v>
@@ -1969,10 +1969,10 @@
         <v>1884.74</v>
       </c>
       <c r="E35" s="10">
-        <v>2250.37</v>
+        <v>2248.4899999999998</v>
       </c>
       <c r="F35" s="10">
-        <v>250.37</v>
+        <v>248.49</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>79</v>
@@ -2004,10 +2004,10 @@
         <v>1213.0899999999999</v>
       </c>
       <c r="E36" s="10">
-        <v>2119.9899999999998</v>
+        <v>2116.96</v>
       </c>
       <c r="F36" s="10">
-        <v>519.99</v>
+        <v>516.96</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>12</v>
@@ -2039,10 +2039,10 @@
         <v>1630.08</v>
       </c>
       <c r="E37" s="10">
-        <v>1868.72</v>
+        <v>1860.24</v>
       </c>
       <c r="F37" s="10">
-        <v>268.72000000000003</v>
+        <v>260.24</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>74</v>
@@ -2074,10 +2074,10 @@
         <v>1407.29</v>
       </c>
       <c r="E38" s="10">
-        <v>1802.73</v>
+        <v>1773.18</v>
       </c>
       <c r="F38" s="10">
-        <v>202.73</v>
+        <v>173.18</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>18</v>
@@ -2109,10 +2109,10 @@
         <v>1338.46</v>
       </c>
       <c r="E39" s="10">
-        <v>1361.21</v>
+        <v>1353.18</v>
       </c>
       <c r="F39" s="10">
-        <v>161.21</v>
+        <v>153.18</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>12</v>
@@ -2144,10 +2144,10 @@
         <v>1495.03</v>
       </c>
       <c r="E40" s="10">
-        <v>1227.71</v>
+        <v>1216.3499999999999</v>
       </c>
       <c r="F40" s="10">
-        <v>27.71</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>12</v>
@@ -2179,10 +2179,10 @@
         <v>900.35</v>
       </c>
       <c r="E41" s="10">
-        <v>991.64</v>
+        <v>987.59</v>
       </c>
       <c r="F41" s="10">
-        <v>191.64</v>
+        <v>187.59</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>12</v>
@@ -2205,19 +2205,19 @@
         <v>99</v>
       </c>
       <c r="B42" s="8">
-        <v>216</v>
+        <v>162411</v>
       </c>
       <c r="C42" s="9">
-        <v>1.0903</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="D42" s="10">
-        <v>733.79</v>
+        <v>2329.2199999999998</v>
       </c>
       <c r="E42" s="10">
-        <v>915.03</v>
+        <v>917.71</v>
       </c>
       <c r="F42" s="10">
-        <v>115.03</v>
+        <v>-282.29000000000002</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>100</v>
@@ -2240,19 +2240,19 @@
         <v>103</v>
       </c>
       <c r="B43" s="8">
-        <v>162411</v>
+        <v>216</v>
       </c>
       <c r="C43" s="9">
-        <v>0.51519999999999999</v>
+        <v>1.0903</v>
       </c>
       <c r="D43" s="10">
-        <v>2329.2199999999998</v>
+        <v>733.79</v>
       </c>
       <c r="E43" s="10">
-        <v>906.06</v>
+        <v>912.61</v>
       </c>
       <c r="F43" s="10">
-        <v>-293.94</v>
+        <v>112.61</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>100</v>
@@ -2284,10 +2284,10 @@
         <v>496.13</v>
       </c>
       <c r="E44" s="10">
-        <v>493.15</v>
+        <v>489.28</v>
       </c>
       <c r="F44" s="10">
-        <v>93.15</v>
+        <v>89.28</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>12</v>
@@ -2319,10 +2319,10 @@
         <v>492.57</v>
       </c>
       <c r="E45" s="10">
-        <v>468.97</v>
+        <v>468.28</v>
       </c>
       <c r="F45" s="10">
-        <v>68.97</v>
+        <v>68.28</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>12</v>
@@ -2354,10 +2354,10 @@
         <v>333.04</v>
       </c>
       <c r="E46" s="10">
-        <v>450.73</v>
+        <v>448.27</v>
       </c>
       <c r="F46" s="10">
-        <v>50.73</v>
+        <v>48.27</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>74</v>
@@ -2389,10 +2389,10 @@
         <v>325.61</v>
       </c>
       <c r="E47" s="10">
-        <v>426.54</v>
+        <v>424.59</v>
       </c>
       <c r="F47" s="10">
-        <v>26.54</v>
+        <v>24.59</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>12</v>
@@ -2424,10 +2424,10 @@
         <v>275.49</v>
       </c>
       <c r="E48" s="10">
-        <v>414.55</v>
+        <v>412.62</v>
       </c>
       <c r="F48" s="10">
-        <v>14.55</v>
+        <v>12.62</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>18</v>
@@ -2459,10 +2459,10 @@
         <v>275.95999999999998</v>
       </c>
       <c r="E49" s="10">
-        <v>242.51</v>
+        <v>239.75</v>
       </c>
       <c r="F49" s="10">
-        <v>13.75</v>
+        <v>10.99</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>12</v>
